--- a/doc/invoices.xlsx
+++ b/doc/invoices.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="3620" windowWidth="12200" windowHeight="7960" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="18940" yWindow="3620" windowWidth="10000" windowHeight="4480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,7 +468,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
